--- a/teaching/traditional_assets/database/data/united_states/united_states_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/united_states/united_states_reinsurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06634999999999999</v>
+        <v>0.0911</v>
       </c>
       <c r="E2">
-        <v>-0.14075</v>
+        <v>-0.00462</v>
       </c>
       <c r="F2">
-        <v>0.465</v>
+        <v>0.301</v>
       </c>
       <c r="G2">
-        <v>0.06024218193515774</v>
+        <v>0.1287502195678904</v>
       </c>
       <c r="H2">
-        <v>0.06024218193515774</v>
+        <v>0.1287502195678904</v>
       </c>
       <c r="I2">
-        <v>0.0653882049943345</v>
+        <v>0.0420918383850227</v>
       </c>
       <c r="J2">
-        <v>0.05391537831854965</v>
+        <v>0.03679994540887101</v>
       </c>
       <c r="K2">
-        <v>859.1</v>
+        <v>492.4</v>
       </c>
       <c r="L2">
-        <v>0.03947979136508812</v>
+        <v>0.02162304584577551</v>
       </c>
       <c r="M2">
-        <v>602.9</v>
+        <v>489.2</v>
       </c>
       <c r="N2">
-        <v>0.02778853244837758</v>
+        <v>0.02962352926928224</v>
       </c>
       <c r="O2">
-        <v>0.7017809335350949</v>
+        <v>0.9935012185215273</v>
       </c>
       <c r="P2">
-        <v>156.9</v>
+        <v>178</v>
       </c>
       <c r="Q2">
-        <v>0.00723174778761062</v>
+        <v>0.01077879846674619</v>
       </c>
       <c r="R2">
-        <v>0.1826329880107089</v>
+        <v>0.3614947197400488</v>
       </c>
       <c r="S2">
-        <v>446</v>
+        <v>311.2</v>
       </c>
       <c r="T2">
-        <v>0.7397578371205838</v>
+        <v>0.6361406377759607</v>
       </c>
       <c r="U2">
-        <v>3533.1</v>
+        <v>4486.6</v>
       </c>
       <c r="V2">
-        <v>0.162845685840708</v>
+        <v>0.2716862764095701</v>
       </c>
       <c r="W2">
-        <v>0.05005596347678033</v>
+        <v>0.0210256031470746</v>
       </c>
       <c r="X2">
-        <v>0.0776842596883448</v>
+        <v>0.08526244966425546</v>
       </c>
       <c r="Y2">
-        <v>-0.02762829621156448</v>
+        <v>-0.06423684651718087</v>
       </c>
       <c r="Z2">
-        <v>1.09422378726894</v>
+        <v>1.017237317675182</v>
       </c>
       <c r="AA2">
-        <v>0.05523775663143322</v>
+        <v>0.02946221068873586</v>
       </c>
       <c r="AB2">
-        <v>0.06479474434852281</v>
+        <v>0.0661207122965583</v>
       </c>
       <c r="AC2">
-        <v>-0.009556987717089585</v>
+        <v>-0.03665850160782244</v>
       </c>
       <c r="AD2">
-        <v>5953.299999999999</v>
+        <v>6022.6</v>
       </c>
       <c r="AE2">
-        <v>341.0998261039202</v>
+        <v>338.4232814813149</v>
       </c>
       <c r="AF2">
-        <v>6294.39982610392</v>
+        <v>6361.023281481315</v>
       </c>
       <c r="AG2">
-        <v>2761.29982610392</v>
+        <v>1874.423281481315</v>
       </c>
       <c r="AH2">
-        <v>0.2248770959046375</v>
+        <v>0.2780784531256095</v>
       </c>
       <c r="AI2">
-        <v>0.2346240389339382</v>
+        <v>0.2239140697764415</v>
       </c>
       <c r="AJ2">
-        <v>0.1129028897604106</v>
+        <v>0.1019355192307842</v>
       </c>
       <c r="AK2">
-        <v>0.1185387042742852</v>
+        <v>0.07835653223747367</v>
       </c>
       <c r="AL2">
-        <v>268.1</v>
+        <v>259.5</v>
       </c>
       <c r="AM2">
-        <v>268.1</v>
+        <v>259.5</v>
       </c>
       <c r="AN2">
-        <v>3.63050371996585</v>
+        <v>4.232921000843408</v>
       </c>
       <c r="AO2">
-        <v>5.364789257739648</v>
+        <v>3.746435452793834</v>
       </c>
       <c r="AP2">
-        <v>1.683924762839322</v>
+        <v>1.317418668457489</v>
       </c>
       <c r="AQ2">
-        <v>5.364789257739648</v>
+        <v>3.746435452793834</v>
       </c>
     </row>
     <row r="3">
@@ -728,121 +728,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0474</v>
+        <v>0.0672</v>
       </c>
       <c r="E3">
-        <v>0.0315</v>
+        <v>-0.00462</v>
       </c>
       <c r="G3">
-        <v>0.07635480479936202</v>
+        <v>0.1110619469026549</v>
       </c>
       <c r="H3">
-        <v>0.07635480479936202</v>
+        <v>0.1110619469026549</v>
       </c>
       <c r="I3">
-        <v>0.08426275117638148</v>
+        <v>0.06210048755781198</v>
       </c>
       <c r="J3">
-        <v>0.0652758132748302</v>
+        <v>0.04648562507940261</v>
       </c>
       <c r="K3">
-        <v>745</v>
+        <v>518</v>
       </c>
       <c r="L3">
-        <v>0.05401094718526842</v>
+        <v>0.03638151425762045</v>
       </c>
       <c r="M3">
-        <v>280.9</v>
+        <v>343</v>
       </c>
       <c r="N3">
-        <v>0.02766833458098578</v>
+        <v>0.04356164035611323</v>
       </c>
       <c r="O3">
-        <v>0.3770469798657718</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="P3">
-        <v>156.9</v>
+        <v>178</v>
       </c>
       <c r="Q3">
-        <v>0.01545447381899846</v>
+        <v>0.022606332313085</v>
       </c>
       <c r="R3">
-        <v>0.2106040268456376</v>
+        <v>0.3436293436293436</v>
       </c>
       <c r="S3">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="T3">
-        <v>0.441438234247063</v>
+        <v>0.4810495626822158</v>
       </c>
       <c r="U3">
-        <v>2635.6</v>
+        <v>3256</v>
       </c>
       <c r="V3">
-        <v>0.2596036405184981</v>
+        <v>0.4135180787157571</v>
       </c>
       <c r="W3">
-        <v>0.08683692142715607</v>
+        <v>0.04495084044187197</v>
       </c>
       <c r="X3">
-        <v>0.08144149628182369</v>
+        <v>0.09056202210470354</v>
       </c>
       <c r="Y3">
-        <v>0.00539542514533238</v>
+        <v>-0.04561118166283157</v>
       </c>
       <c r="Z3">
-        <v>1.323649669251608</v>
+        <v>1.097775388027257</v>
       </c>
       <c r="AA3">
-        <v>0.0864023086513587</v>
+        <v>0.05103077510923078</v>
       </c>
       <c r="AB3">
-        <v>0.0641673876427154</v>
+        <v>0.0662189207618023</v>
       </c>
       <c r="AC3">
-        <v>0.0222349210086433</v>
+        <v>-0.01518814565257152</v>
       </c>
       <c r="AD3">
-        <v>4017.7</v>
+        <v>3981</v>
       </c>
       <c r="AE3">
-        <v>59.10870824291007</v>
+        <v>64.06629075936495</v>
       </c>
       <c r="AF3">
-        <v>4076.80870824291</v>
+        <v>4045.066290759365</v>
       </c>
       <c r="AG3">
-        <v>1441.20870824291</v>
+        <v>789.0662907593651</v>
       </c>
       <c r="AH3">
-        <v>0.2865098679648458</v>
+        <v>0.3393806301722204</v>
       </c>
       <c r="AI3">
-        <v>0.2613253698636653</v>
+        <v>0.2343734141009195</v>
       </c>
       <c r="AJ3">
-        <v>0.1243106218703266</v>
+        <v>0.0910850007117133</v>
       </c>
       <c r="AK3">
-        <v>0.1111622719970723</v>
+        <v>0.05634953619266021</v>
       </c>
       <c r="AL3">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM3">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN3">
-        <v>3.331702462890787</v>
+        <v>3.478982784234903</v>
       </c>
       <c r="AO3">
-        <v>6.866863905325443</v>
+        <v>5.188235294117647</v>
       </c>
       <c r="AP3">
-        <v>1.195131195159557</v>
+        <v>0.6895624318442412</v>
       </c>
       <c r="AQ3">
-        <v>6.866863905325443</v>
+        <v>5.188235294117647</v>
       </c>
     </row>
     <row r="4">
@@ -862,40 +862,37 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.08529999999999999</v>
-      </c>
-      <c r="E4">
-        <v>-0.313</v>
+        <v>0.115</v>
       </c>
       <c r="F4">
-        <v>0.465</v>
+        <v>0.301</v>
       </c>
       <c r="G4">
-        <v>0.03234592694866324</v>
+        <v>0.1582610733536442</v>
       </c>
       <c r="H4">
-        <v>0.03234592694866324</v>
+        <v>0.1582610733536442</v>
       </c>
       <c r="I4">
-        <v>0.03271015142811572</v>
+        <v>0.008709702584439889</v>
       </c>
       <c r="J4">
-        <v>0.02860227610273904</v>
+        <v>0.008709702584439889</v>
       </c>
       <c r="K4">
-        <v>114.1</v>
+        <v>-25.6</v>
       </c>
       <c r="L4">
-        <v>0.01432157650307518</v>
+        <v>-0.002999765643309117</v>
       </c>
       <c r="M4">
-        <v>322</v>
+        <v>146.2</v>
       </c>
       <c r="N4">
-        <v>0.02789424442981392</v>
+        <v>0.0169212962962963</v>
       </c>
       <c r="O4">
-        <v>2.822085889570552</v>
+        <v>-5.710937499999999</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -904,82 +901,82 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>322</v>
+        <v>146.2</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>897.5</v>
+        <v>1230.6</v>
       </c>
       <c r="V4">
-        <v>0.07774870924148446</v>
+        <v>0.1424305555555555</v>
       </c>
       <c r="W4">
-        <v>0.01327500552640458</v>
+        <v>-0.002899634147722768</v>
       </c>
       <c r="X4">
-        <v>0.0739270230948659</v>
+        <v>0.07996287722380738</v>
       </c>
       <c r="Y4">
-        <v>-0.06065201756846132</v>
+        <v>-0.08286251137153014</v>
       </c>
       <c r="Z4">
-        <v>0.8416534588029665</v>
+        <v>0.9063049158926676</v>
       </c>
       <c r="AA4">
-        <v>0.02407320461150774</v>
+        <v>0.007893646268240942</v>
       </c>
       <c r="AB4">
-        <v>0.06542210105433022</v>
+        <v>0.06602250383131431</v>
       </c>
       <c r="AC4">
-        <v>-0.04134889644282247</v>
+        <v>-0.05812885756307336</v>
       </c>
       <c r="AD4">
-        <v>1935.6</v>
+        <v>2041.6</v>
       </c>
       <c r="AE4">
-        <v>281.9911178610101</v>
+        <v>274.35699072195</v>
       </c>
       <c r="AF4">
-        <v>2217.59111786101</v>
+        <v>2315.95699072195</v>
       </c>
       <c r="AG4">
-        <v>1320.09111786101</v>
+        <v>1085.35699072195</v>
       </c>
       <c r="AH4">
-        <v>0.1611481955935297</v>
+        <v>0.2113879228152518</v>
       </c>
       <c r="AI4">
-        <v>0.1975214322731449</v>
+        <v>0.2077229893121321</v>
       </c>
       <c r="AJ4">
-        <v>0.1026214875470763</v>
+        <v>0.1116007352488332</v>
       </c>
       <c r="AK4">
-        <v>0.1277970350228506</v>
+        <v>0.1094258014706233</v>
       </c>
       <c r="AL4">
-        <v>99.09999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="AM4">
-        <v>99.09999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="AN4">
-        <v>4.460935699469924</v>
+        <v>7.330700179533213</v>
       </c>
       <c r="AO4">
-        <v>2.803229061553986</v>
+        <v>1.007821229050279</v>
       </c>
       <c r="AP4">
-        <v>3.042385613876492</v>
+        <v>3.897152569917234</v>
       </c>
       <c r="AQ4">
-        <v>2.803229061553986</v>
+        <v>1.007821229050279</v>
       </c>
     </row>
   </sheetData>
